--- a/Code/Results/Cases/Case_8_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.324584298706952</v>
+        <v>2.324708251711513</v>
       </c>
       <c r="C2">
-        <v>1.066165247692027</v>
+        <v>1.234405324818795</v>
       </c>
       <c r="D2">
-        <v>0.0653098961370624</v>
+        <v>0.03365280314329055</v>
       </c>
       <c r="E2">
-        <v>0.2141135940180448</v>
+        <v>0.2124133200974114</v>
       </c>
       <c r="F2">
-        <v>2.568428020904733</v>
+        <v>1.802224172963932</v>
       </c>
       <c r="G2">
-        <v>0.0007990516441463227</v>
+        <v>0.0001619951882147475</v>
       </c>
       <c r="H2">
-        <v>0.000477718235000868</v>
+        <v>0.000721442636084646</v>
       </c>
       <c r="I2">
-        <v>0.001135736418464095</v>
+        <v>0.001927310124808734</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.434974184947805</v>
+        <v>0.8701839244261294</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3914851688648966</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2732794981237134</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.014529396132318</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.040411200480669</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.018863430817703</v>
+        <v>2.025721164511936</v>
       </c>
       <c r="C3">
-        <v>0.922146054098306</v>
+        <v>1.068610022471262</v>
       </c>
       <c r="D3">
-        <v>0.06165046840511579</v>
+        <v>0.03257460866010398</v>
       </c>
       <c r="E3">
-        <v>0.1843625803686777</v>
+        <v>0.1868818113074013</v>
       </c>
       <c r="F3">
-        <v>2.290370816357921</v>
+        <v>1.626062839302875</v>
       </c>
       <c r="G3">
-        <v>0.0008051313309689941</v>
+        <v>0.001374064357785171</v>
       </c>
       <c r="H3">
-        <v>5.800769965702557E-06</v>
+        <v>0.0001122586809425563</v>
       </c>
       <c r="I3">
-        <v>0.0004227562137262275</v>
+        <v>0.000911811844158894</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.302970813835429</v>
+        <v>0.8101325499541758</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3796818972043141</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2404865149833313</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8811830120648736</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.9044193300756049</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.831738126146263</v>
+        <v>1.841999990312473</v>
       </c>
       <c r="C4">
-        <v>0.8348994737923761</v>
+        <v>0.9676581929506938</v>
       </c>
       <c r="D4">
-        <v>0.05931700377228921</v>
+        <v>0.03184776290902036</v>
       </c>
       <c r="E4">
-        <v>0.1663636951477905</v>
+        <v>0.1712527816717255</v>
       </c>
       <c r="F4">
-        <v>2.12032886320273</v>
+        <v>1.51740448017884</v>
       </c>
       <c r="G4">
-        <v>0.0008089760439340891</v>
+        <v>0.002751979382305925</v>
       </c>
       <c r="H4">
-        <v>9.764728775119025E-05</v>
+        <v>8.372746229667882E-08</v>
       </c>
       <c r="I4">
-        <v>0.0005830995383622195</v>
+        <v>0.0006026879557627929</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.221770946136459</v>
+        <v>0.7726291101128382</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3718304274650919</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2210277119958235</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.799693270269394</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.821135743704609</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.755483087109354</v>
+        <v>1.766985244008708</v>
       </c>
       <c r="C5">
-        <v>0.8004532772769721</v>
+        <v>0.9274611357368769</v>
       </c>
       <c r="D5">
-        <v>0.05813714920677526</v>
+        <v>0.03145612947058396</v>
       </c>
       <c r="E5">
-        <v>0.1590244881732055</v>
+        <v>0.1648427761913993</v>
       </c>
       <c r="F5">
-        <v>2.04670230074862</v>
+        <v>1.469921551942519</v>
       </c>
       <c r="G5">
-        <v>0.0008105842609456914</v>
+        <v>0.003468270248690064</v>
       </c>
       <c r="H5">
-        <v>0.0002251651467082283</v>
+        <v>1.607566573236241E-05</v>
       </c>
       <c r="I5">
-        <v>0.000857498440759219</v>
+        <v>0.0006274879708190184</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.185260529481241</v>
+        <v>0.7550776482098698</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.367600446668753</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.2125619157696974</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7666790059237272</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7873345811436749</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.742692300147468</v>
+        <v>1.754411193181909</v>
       </c>
       <c r="C6">
-        <v>0.7957873387792347</v>
+        <v>0.9217206896521191</v>
       </c>
       <c r="D6">
-        <v>0.05768797683457549</v>
+        <v>0.03129424628777144</v>
       </c>
       <c r="E6">
-        <v>0.1577342510392192</v>
+        <v>0.1637200593158532</v>
       </c>
       <c r="F6">
-        <v>2.029046465772396</v>
+        <v>1.458295631523242</v>
       </c>
       <c r="G6">
-        <v>0.0008108683854077863</v>
+        <v>0.003602748332803551</v>
       </c>
       <c r="H6">
-        <v>0.0002525636999970438</v>
+        <v>2.255279997065429E-05</v>
       </c>
       <c r="I6">
-        <v>0.001003972511632867</v>
+        <v>0.000739264444043819</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.175092509097666</v>
+        <v>0.7495878920680639</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3658190264661698</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.2103102021297758</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7613433842955004</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7818423938223731</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.830333750558225</v>
+        <v>1.840841648775154</v>
       </c>
       <c r="C7">
-        <v>0.8372771491717685</v>
+        <v>0.9634639014187769</v>
       </c>
       <c r="D7">
-        <v>0.05860969185856391</v>
+        <v>0.03113303998708616</v>
       </c>
       <c r="E7">
-        <v>0.1660578573461251</v>
+        <v>0.1711104523013596</v>
       </c>
       <c r="F7">
-        <v>2.104440915868523</v>
+        <v>1.487918134578536</v>
       </c>
       <c r="G7">
-        <v>0.0008090390456486017</v>
+        <v>0.003039541550796887</v>
       </c>
       <c r="H7">
-        <v>0.0001006554058027298</v>
+        <v>1.652813441666012E-09</v>
       </c>
       <c r="I7">
-        <v>0.0008198282328519824</v>
+        <v>0.000860695393080313</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.210038665725577</v>
+        <v>0.754884147865404</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3645572309014113</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.2149825119985351</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7996362414419025</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.8201251457748171</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.218487289698203</v>
+        <v>2.221709343521695</v>
       </c>
       <c r="C8">
-        <v>1.020025506937884</v>
+        <v>1.159557115262828</v>
       </c>
       <c r="D8">
-        <v>0.06314150330409873</v>
+        <v>0.03158541025696238</v>
       </c>
       <c r="E8">
-        <v>0.2035070584605521</v>
+        <v>0.2037318097204448</v>
       </c>
       <c r="F8">
-        <v>2.452479599076412</v>
+        <v>1.666367533763491</v>
       </c>
       <c r="G8">
-        <v>0.0008011783404541095</v>
+        <v>0.00191196648242542</v>
       </c>
       <c r="H8">
-        <v>0.0002284802652789963</v>
+        <v>0.0004331679844042924</v>
       </c>
       <c r="I8">
-        <v>0.001017660109813079</v>
+        <v>0.001763972049893425</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.37446391923261</v>
+        <v>0.8059321601537306</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3702735616222697</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2462850836147368</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9689727507048289</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9909090743619871</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.98698623018231</v>
+        <v>2.968277040990301</v>
       </c>
       <c r="C9">
-        <v>1.384494979802412</v>
+        <v>1.569671383385412</v>
       </c>
       <c r="D9">
-        <v>0.07260988061912599</v>
+        <v>0.03390797943482582</v>
       </c>
       <c r="E9">
-        <v>0.2799996755171748</v>
+        <v>0.2682091255492836</v>
       </c>
       <c r="F9">
-        <v>3.170298748928928</v>
+        <v>2.098661189932514</v>
       </c>
       <c r="G9">
-        <v>0.0007865400215231301</v>
+        <v>0.002732323643636292</v>
       </c>
       <c r="H9">
-        <v>0.003837163322978121</v>
+        <v>0.003560712259117915</v>
       </c>
       <c r="I9">
-        <v>0.006385804494425606</v>
+        <v>0.005909068637757642</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.71733102486607</v>
+        <v>0.9513600646611806</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3971626576048806</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.3304071268450031</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.304372012807264</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.330753845470511</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.576482034906462</v>
+        <v>3.537396750254402</v>
       </c>
       <c r="C10">
-        <v>1.658332373555027</v>
+        <v>1.831705077815343</v>
       </c>
       <c r="D10">
-        <v>0.07524949722856888</v>
+        <v>0.03260999772688411</v>
       </c>
       <c r="E10">
-        <v>0.3134942044590261</v>
+        <v>0.2927983313804035</v>
       </c>
       <c r="F10">
-        <v>3.620352098030054</v>
+        <v>2.256282452453675</v>
       </c>
       <c r="G10">
-        <v>0.0007765130449923774</v>
+        <v>0.01367445231139008</v>
       </c>
       <c r="H10">
-        <v>0.008764557393931227</v>
+        <v>0.007245256143332046</v>
       </c>
       <c r="I10">
-        <v>0.01424051072856169</v>
+        <v>0.01074424657200979</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.911657398517974</v>
+        <v>0.9665396642118296</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3822482222741996</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3606591567273583</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.514877392570497</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.536731153047484</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.010346046738221</v>
+        <v>3.969464485607546</v>
       </c>
       <c r="C11">
-        <v>1.74621438676985</v>
+        <v>1.815345933308436</v>
       </c>
       <c r="D11">
-        <v>0.04989343009450309</v>
+        <v>0.03109934878647813</v>
       </c>
       <c r="E11">
-        <v>0.1592404401877339</v>
+        <v>0.1421420164377025</v>
       </c>
       <c r="F11">
-        <v>3.141693335401413</v>
+        <v>1.760885716990856</v>
       </c>
       <c r="G11">
-        <v>0.0007740847883612558</v>
+        <v>0.04768107820487799</v>
       </c>
       <c r="H11">
-        <v>0.02666060648264335</v>
+        <v>0.02484298667995688</v>
       </c>
       <c r="I11">
-        <v>0.01701729287553633</v>
+        <v>0.01233683726132284</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.542644798814493</v>
+        <v>0.6647066156984565</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2677248451618652</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2503979652026942</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.279437634534062</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.285654712862183</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.262049514832256</v>
+        <v>4.223884362760202</v>
       </c>
       <c r="C12">
-        <v>1.757267467242912</v>
+        <v>1.765780553848458</v>
       </c>
       <c r="D12">
-        <v>0.03609680976387253</v>
+        <v>0.03858410311529781</v>
       </c>
       <c r="E12">
-        <v>0.08657620123670817</v>
+        <v>0.07204403318907815</v>
       </c>
       <c r="F12">
-        <v>2.697977828656008</v>
+        <v>1.424621454492936</v>
       </c>
       <c r="G12">
-        <v>0.0007738138640331866</v>
+        <v>0.07181262454044912</v>
       </c>
       <c r="H12">
-        <v>0.06430135051401464</v>
+        <v>0.06256851031356092</v>
       </c>
       <c r="I12">
-        <v>0.01729012586717893</v>
+        <v>0.01243409816725194</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.241516156070048</v>
+        <v>0.4842108379968124</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2029223939233411</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1803567588057575</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.055762381292283</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.054840659396561</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.384492975164221</v>
+        <v>4.352023186726001</v>
       </c>
       <c r="C13">
-        <v>1.714154806559975</v>
+        <v>1.706718029948036</v>
       </c>
       <c r="D13">
-        <v>0.02921745461365011</v>
+        <v>0.04735407901182498</v>
       </c>
       <c r="E13">
-        <v>0.07125371944661119</v>
+        <v>0.05960138002234849</v>
       </c>
       <c r="F13">
-        <v>2.233773846900817</v>
+        <v>1.188410807555428</v>
       </c>
       <c r="G13">
-        <v>0.0007752426200666673</v>
+        <v>0.06537347807211802</v>
       </c>
       <c r="H13">
-        <v>0.118677348357167</v>
+        <v>0.1173022457480926</v>
       </c>
       <c r="I13">
-        <v>0.0158387123025534</v>
+        <v>0.01175191373826578</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9584160143069269</v>
+        <v>0.3725336148514486</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1651764013821158</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1339387871250501</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8308065426923577</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.8290732145266304</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.411655016847874</v>
+        <v>4.384177666281573</v>
       </c>
       <c r="C14">
-        <v>1.660832331188089</v>
+        <v>1.660735168075291</v>
       </c>
       <c r="D14">
-        <v>0.02838887985215521</v>
+        <v>0.05287492370440816</v>
       </c>
       <c r="E14">
-        <v>0.09454571372720366</v>
+        <v>0.08540260052656379</v>
       </c>
       <c r="F14">
-        <v>1.903489902775959</v>
+        <v>1.057244434229617</v>
       </c>
       <c r="G14">
-        <v>0.0007769896176457022</v>
+        <v>0.04818265777760189</v>
       </c>
       <c r="H14">
-        <v>0.1670099023783536</v>
+        <v>0.1659540481397954</v>
       </c>
       <c r="I14">
-        <v>0.01422351384137333</v>
+        <v>0.01102080409421013</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7721571506002292</v>
+        <v>0.3174876268963764</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1475927031971551</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1095424145911288</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6773214712932685</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6769384607439974</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.388913833264098</v>
+        <v>4.363263026125821</v>
       </c>
       <c r="C15">
-        <v>1.637613765080175</v>
+        <v>1.647041917117519</v>
       </c>
       <c r="D15">
-        <v>0.02877251290561844</v>
+        <v>0.05331974919955229</v>
       </c>
       <c r="E15">
-        <v>0.1040012552706209</v>
+        <v>0.09595110014911867</v>
       </c>
       <c r="F15">
-        <v>1.811301941059043</v>
+        <v>1.034062570800785</v>
       </c>
       <c r="G15">
-        <v>0.0007778233256109295</v>
+        <v>0.03954336561103489</v>
       </c>
       <c r="H15">
-        <v>0.1791358723241672</v>
+        <v>0.1782077048984121</v>
       </c>
       <c r="I15">
-        <v>0.01356996067752991</v>
+        <v>0.01077574785648672</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7241769379991609</v>
+        <v>0.309745835373743</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1456161005152907</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1053374203611774</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.6376582282178447</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6383153649275641</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.103122871707001</v>
+        <v>4.083550521809968</v>
       </c>
       <c r="C16">
-        <v>1.5304749531835</v>
+        <v>1.605303912960949</v>
       </c>
       <c r="D16">
-        <v>0.02919818860122625</v>
+        <v>0.04397219452413736</v>
       </c>
       <c r="E16">
-        <v>0.09420074827708191</v>
+        <v>0.090596277173983</v>
       </c>
       <c r="F16">
-        <v>1.717638363314109</v>
+        <v>1.120450644123665</v>
       </c>
       <c r="G16">
-        <v>0.0007817978825917552</v>
+        <v>0.0105166694083092</v>
       </c>
       <c r="H16">
-        <v>0.1648291456581319</v>
+        <v>0.164384238216698</v>
       </c>
       <c r="I16">
-        <v>0.01037676704166568</v>
+        <v>0.009138808847597879</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7014817077814115</v>
+        <v>0.3651048737077929</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1689443459256559</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1216404443392598</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.6019547518333468</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6090366800291562</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.870504398343712</v>
+        <v>3.853365933988073</v>
       </c>
       <c r="C17">
-        <v>1.476919051904417</v>
+        <v>1.58851419009784</v>
       </c>
       <c r="D17">
-        <v>0.02924894335421957</v>
+        <v>0.03686993224784274</v>
       </c>
       <c r="E17">
-        <v>0.06854944190099488</v>
+        <v>0.06626227575507215</v>
       </c>
       <c r="F17">
-        <v>1.815513195224497</v>
+        <v>1.246100668635705</v>
       </c>
       <c r="G17">
-        <v>0.0007839489027469115</v>
+        <v>0.004112098101341388</v>
       </c>
       <c r="H17">
-        <v>0.1263709242651601</v>
+        <v>0.126111403709487</v>
       </c>
       <c r="I17">
-        <v>0.008879833624305888</v>
+        <v>0.008298430732263995</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7780182605244192</v>
+        <v>0.4367286463311828</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1973250459414615</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1459719466241651</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.65272847060087</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.663924666174772</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.660281418798036</v>
+        <v>3.642407568638816</v>
       </c>
       <c r="C18">
-        <v>1.460328845641641</v>
+        <v>1.603009657117809</v>
       </c>
       <c r="D18">
-        <v>0.03241710767355244</v>
+        <v>0.03106803111621304</v>
       </c>
       <c r="E18">
-        <v>0.05673897904584146</v>
+        <v>0.05309996924680083</v>
       </c>
       <c r="F18">
-        <v>2.115277045721839</v>
+        <v>1.464884687012599</v>
       </c>
       <c r="G18">
-        <v>0.0007846105456099991</v>
+        <v>0.002648102397214469</v>
       </c>
       <c r="H18">
-        <v>0.07360794116456759</v>
+        <v>0.07338002607833971</v>
       </c>
       <c r="I18">
-        <v>0.008238815610173589</v>
+        <v>0.007769252681477212</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9717880986669769</v>
+        <v>0.5555266276416901</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.242136597149198</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.189822103609913</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7939650705771868</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8096979953865855</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.486735871287294</v>
+        <v>3.46547932538931</v>
       </c>
       <c r="C19">
-        <v>1.480515613437262</v>
+        <v>1.652624568510362</v>
       </c>
       <c r="D19">
-        <v>0.042665446165703</v>
+        <v>0.02911414513055188</v>
       </c>
       <c r="E19">
-        <v>0.1026106849581616</v>
+        <v>0.09506434929990704</v>
       </c>
       <c r="F19">
-        <v>2.561944987666749</v>
+        <v>1.754427111444087</v>
       </c>
       <c r="G19">
-        <v>0.000783890380485145</v>
+        <v>0.002650881751087741</v>
       </c>
       <c r="H19">
-        <v>0.02930061151050012</v>
+        <v>0.02897160309925795</v>
       </c>
       <c r="I19">
-        <v>0.008828520261856987</v>
+        <v>0.008171539942184225</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.258027884509914</v>
+        <v>0.7132855162259943</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3001590049859573</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2501648494738049</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.015997203608258</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.036957630268184</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.420283401853453</v>
+        <v>3.387086357690293</v>
       </c>
       <c r="C20">
-        <v>1.594534512022449</v>
+        <v>1.793698033481519</v>
       </c>
       <c r="D20">
-        <v>0.07228986792966907</v>
+        <v>0.03339866804622194</v>
       </c>
       <c r="E20">
-        <v>0.3027229177528881</v>
+        <v>0.2844017510931636</v>
       </c>
       <c r="F20">
-        <v>3.450729978827212</v>
+        <v>2.247808133278596</v>
       </c>
       <c r="G20">
-        <v>0.0007792452937798383</v>
+        <v>0.00620002842512779</v>
       </c>
       <c r="H20">
-        <v>0.007223384487963003</v>
+        <v>0.006183530995086617</v>
       </c>
       <c r="I20">
-        <v>0.01242453781921782</v>
+        <v>0.0102556623341501</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.822634053493459</v>
+        <v>0.9766887242391675</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3911714443894212</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3581729316496549</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.458903359065431</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.485253945367063</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.847977712093666</v>
+        <v>3.797653543737738</v>
       </c>
       <c r="C21">
-        <v>1.814470557815696</v>
+        <v>1.885075191469014</v>
       </c>
       <c r="D21">
-        <v>0.08012755148956074</v>
+        <v>0.03028371108100414</v>
       </c>
       <c r="E21">
-        <v>0.3682570138833796</v>
+        <v>0.3431464579369816</v>
       </c>
       <c r="F21">
-        <v>3.93247258043337</v>
+        <v>2.11285657912228</v>
       </c>
       <c r="G21">
-        <v>0.0007712605925194992</v>
+        <v>0.06974528985402628</v>
       </c>
       <c r="H21">
-        <v>0.01234091013099792</v>
+        <v>0.009483712387877596</v>
       </c>
       <c r="I21">
-        <v>0.02019403279919274</v>
+        <v>0.01382340300127449</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.063280345010071</v>
+        <v>0.8556127380200849</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.333553547004243</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3285307173782499</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.683662325604985</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.688401635964695</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.139766697159928</v>
+        <v>4.077276724910405</v>
       </c>
       <c r="C22">
-        <v>1.954669893140931</v>
+        <v>1.928933917204347</v>
       </c>
       <c r="D22">
-        <v>0.0843317794505225</v>
+        <v>0.03068691768596388</v>
       </c>
       <c r="E22">
-        <v>0.399430201063474</v>
+        <v>0.370363972069164</v>
       </c>
       <c r="F22">
-        <v>4.23070472772875</v>
+        <v>1.997852882256169</v>
       </c>
       <c r="G22">
-        <v>0.0007661849223997445</v>
+        <v>0.1609958037663688</v>
       </c>
       <c r="H22">
-        <v>0.01621394465015058</v>
+        <v>0.0118721637954432</v>
       </c>
       <c r="I22">
-        <v>0.02600403404316065</v>
+        <v>0.01611600308353545</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.209606033321066</v>
+        <v>0.7666111728677762</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2942143160386337</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3038924691461631</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.810984509384951</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.798875751709303</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.984420908097036</v>
+        <v>3.927941931075679</v>
       </c>
       <c r="C23">
-        <v>1.87613309721155</v>
+        <v>1.919294775922083</v>
       </c>
       <c r="D23">
-        <v>0.08293342136413884</v>
+        <v>0.0302673198388943</v>
       </c>
       <c r="E23">
-        <v>0.3830178845135919</v>
+        <v>0.3555891318155275</v>
       </c>
       <c r="F23">
-        <v>4.089423707540845</v>
+        <v>2.113157894568474</v>
       </c>
       <c r="G23">
-        <v>0.0007688449671938865</v>
+        <v>0.09417506313452861</v>
       </c>
       <c r="H23">
-        <v>0.01410590360981845</v>
+        <v>0.01062680656739308</v>
       </c>
       <c r="I23">
-        <v>0.02260798200807379</v>
+        <v>0.0146712163731717</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.145113026202779</v>
+        <v>0.8429790704143301</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3250209100795871</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3289081895639825</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.74245923970885</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.742078369065538</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.399874623576352</v>
+        <v>3.366089028356726</v>
       </c>
       <c r="C24">
-        <v>1.589650126251513</v>
+        <v>1.793255814276449</v>
       </c>
       <c r="D24">
-        <v>0.07620592990328845</v>
+        <v>0.03443665476783142</v>
       </c>
       <c r="E24">
-        <v>0.3218840861304102</v>
+        <v>0.3027783389351129</v>
       </c>
       <c r="F24">
-        <v>3.532867057365962</v>
+        <v>2.302688387134111</v>
       </c>
       <c r="G24">
-        <v>0.0007791101484368716</v>
+        <v>0.006095083255460487</v>
       </c>
       <c r="H24">
-        <v>0.007367234131034128</v>
+        <v>0.006291430644361662</v>
       </c>
       <c r="I24">
-        <v>0.01212444568740434</v>
+        <v>0.009797052743447665</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.881750274187908</v>
+        <v>1.010964541632106</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4037789370721185</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3712933659164435</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.486137636224086</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.513321601570553</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.777275165546428</v>
+        <v>2.765397638265313</v>
       </c>
       <c r="C25">
-        <v>1.289636413678863</v>
+        <v>1.471517431486177</v>
       </c>
       <c r="D25">
-        <v>0.0688481863815511</v>
+        <v>0.03349031563120697</v>
       </c>
       <c r="E25">
-        <v>0.25852699318866</v>
+        <v>0.2502183325122758</v>
       </c>
       <c r="F25">
-        <v>2.947318043172487</v>
+        <v>1.990195342980243</v>
       </c>
       <c r="G25">
-        <v>0.0007904849920600582</v>
+        <v>0.0009969656454833498</v>
       </c>
       <c r="H25">
-        <v>0.002440019849091701</v>
+        <v>0.002450148848622158</v>
       </c>
       <c r="I25">
-        <v>0.004618089974768758</v>
+        <v>0.004926746273049787</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.603686230509624</v>
+        <v>0.914891101000002</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3913109975237745</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.3079147070059491</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.213759809724337</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.240375127569607</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
